--- a/Test Data/T1813_T1881.xlsx
+++ b/Test Data/T1813_T1881.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28817BD5-1C24-47E0-B2F5-0963BAB32FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB0A5DB-58DC-4A2E-8CA3-4FAFF40A19A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Repeaters" sheetId="7" r:id="rId1"/>
-    <sheet name="Repeaters_Updated" sheetId="11" r:id="rId2"/>
+    <sheet name="RepeatersOld" sheetId="7" r:id="rId1"/>
+    <sheet name="Repeaters" sheetId="11" r:id="rId2"/>
     <sheet name="Loops" sheetId="3" r:id="rId3"/>
     <sheet name="Miscellaneous" sheetId="6" r:id="rId4"/>
     <sheet name="Miscellaneous_ZX1_ZX4" sheetId="12" r:id="rId5"/>
@@ -601,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF64F86F-E670-4311-855B-F41E50B27A51}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/T1813_T1881.xlsx
+++ b/Test Data/T1813_T1881.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB0A5DB-58DC-4A2E-8CA3-4FAFF40A19A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76D3DF1-469C-460E-8B3E-860CE0013B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="RepeatersOld" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="47">
   <si>
     <t>Wg</t>
   </si>
@@ -174,10 +174,13 @@
     <t>MZX Communicator</t>
   </si>
   <si>
-    <t>MZX Bezel Small</t>
-  </si>
-  <si>
     <t>NGC-3475/T1813/T1881</t>
+  </si>
+  <si>
+    <t>FAT-S</t>
+  </si>
+  <si>
+    <t>MZX Bezel Large</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -753,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF64F86F-E670-4311-855B-F41E50B27A51}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -800,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -962,7 +965,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1069,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1171,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1268,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1346,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70823DFC-9F4D-48CC-8A3A-BA1CDFF79EA6}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,7 +1398,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1433,16 +1436,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1460,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5DB2E2-B495-415D-A1C8-38158F7B6DA0}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1507,7 +1515,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/T1813_T1881.xlsx
+++ b/Test Data/T1813_T1881.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76D3DF1-469C-460E-8B3E-860CE0013B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CF7470-CB6F-4063-A8D0-C289777DDB7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -20,7 +20,8 @@
     <sheet name="Miscellaneous_ZX1_ZX4" sheetId="12" r:id="rId5"/>
     <sheet name="Printers" sheetId="9" r:id="rId6"/>
     <sheet name="Accessories" sheetId="10" r:id="rId7"/>
-    <sheet name="Accessories_ZX1_ZX4" sheetId="13" r:id="rId8"/>
+    <sheet name="Accessories_MZX125" sheetId="14" r:id="rId8"/>
+    <sheet name="Accessories_ZX1_ZX4" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="49">
   <si>
     <t>Wg</t>
   </si>
@@ -181,6 +182,12 @@
   </si>
   <si>
     <t>MZX Bezel Large</t>
+  </si>
+  <si>
+    <t>MZX Bezel Small</t>
+  </si>
+  <si>
+    <t>All Market</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1359,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,10 +1472,122 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D8E0D8-100F-4B1B-B6BE-4A269E96BCFD}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5DB2E2-B495-415D-A1C8-38158F7B6DA0}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
